--- a/Backlogs/Product Backlog.xlsx
+++ b/Backlogs/Product Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rogier\Documenten\Project3-Data\Backlogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gurka\Documents\GitHub\Project3-Data\Backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Write query that filters data in the database</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -701,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>

--- a/Backlogs/Product Backlog.xlsx
+++ b/Backlogs/Product Backlog.xlsx
@@ -60,9 +60,6 @@
     <t>Create data-set</t>
   </si>
   <si>
-    <t>Put all data in a PostgreSQL Database</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Put all data in a Database</t>
   </si>
 </sst>
 </file>
@@ -561,7 +561,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>8</v>
@@ -664,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -735,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>8</v>
@@ -744,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -775,16 +775,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="1"/>
@@ -815,13 +815,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="11" t="s">
@@ -855,10 +855,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>3</v>
@@ -895,10 +895,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>3</v>
@@ -935,10 +935,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>3</v>
@@ -975,10 +975,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>3</v>
@@ -1015,10 +1015,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>3</v>
@@ -1055,10 +1055,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>3</v>

--- a/Backlogs/Product Backlog.xlsx
+++ b/Backlogs/Product Backlog.xlsx
@@ -561,7 +561,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -825,7 +825,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="11" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -905,7 +905,7 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -945,7 +945,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="1"/>
